--- a/public/case_others_template/template.xlsx
+++ b/public/case_others_template/template.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="57">
   <si>
     <t xml:space="preserve">Sl.No</t>
   </si>
@@ -70,7 +70,7 @@
     <t xml:space="preserve">TK0016</t>
   </si>
   <si>
-    <t xml:space="preserve">WHOIS</t>
+    <t xml:space="preserve">INSTAGRAM</t>
   </si>
   <si>
     <t xml:space="preserve">https://community.org</t>
@@ -94,7 +94,7 @@
     <t xml:space="preserve">TK0017</t>
   </si>
   <si>
-    <t xml:space="preserve">DNS Records</t>
+    <t xml:space="preserve">FACEBOOK</t>
   </si>
   <si>
     <t xml:space="preserve">https://project.net</t>
@@ -115,6 +115,9 @@
     <t xml:space="preserve">TK0018</t>
   </si>
   <si>
+    <t xml:space="preserve">LINKEDIN</t>
+  </si>
+  <si>
     <t xml:space="preserve">https://store.biz</t>
   </si>
   <si>
@@ -154,6 +157,9 @@
     <t xml:space="preserve">TK0020</t>
   </si>
   <si>
+    <t xml:space="preserve">TWITTER</t>
+  </si>
+  <si>
     <t xml:space="preserve">https://blog.com</t>
   </si>
   <si>
@@ -167,6 +173,9 @@
   </si>
   <si>
     <t xml:space="preserve">TK0021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FB</t>
   </si>
   <si>
     <t xml:space="preserve">https://shop.net</t>
@@ -196,6 +205,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -217,17 +227,20 @@
       <sz val="10"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -309,10 +322,10 @@
   <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I12" activeCellId="0" sqref="I12"/>
+      <selection pane="topLeft" activeCell="J9" activeCellId="0" sqref="J9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -427,7 +440,7 @@
         <v>30</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -435,28 +448,28 @@
         <v>19</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -464,28 +477,28 @@
         <v>20</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>16</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -493,13 +506,13 @@
         <v>21</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>12</v>
@@ -508,13 +521,13 @@
         <v>21</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>16</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -522,13 +535,13 @@
         <v>22</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>20</v>
@@ -537,13 +550,13 @@
         <v>13</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/public/case_others_template/template.xlsx
+++ b/public/case_others_template/template.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="61">
   <si>
     <t xml:space="preserve">Sl.No</t>
   </si>
@@ -49,6 +49,9 @@
     <t xml:space="preserve">Evidence Type</t>
   </si>
   <si>
+    <t xml:space="preserve">Source</t>
+  </si>
+  <si>
     <t xml:space="preserve">https://forum.com</t>
   </si>
   <si>
@@ -73,6 +76,9 @@
     <t xml:space="preserve">INSTAGRAM</t>
   </si>
   <si>
+    <t xml:space="preserve">from public</t>
+  </si>
+  <si>
     <t xml:space="preserve">https://community.org</t>
   </si>
   <si>
@@ -118,6 +124,9 @@
     <t xml:space="preserve">LINKEDIN</t>
   </si>
   <si>
+    <t xml:space="preserve">from doman</t>
+  </si>
+  <si>
     <t xml:space="preserve">https://store.biz</t>
   </si>
   <si>
@@ -176,6 +185,9 @@
   </si>
   <si>
     <t xml:space="preserve">FB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">from portal</t>
   </si>
   <si>
     <t xml:space="preserve">https://shop.net</t>
@@ -200,7 +212,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -228,6 +240,12 @@
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -285,7 +303,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -294,11 +312,15 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -319,13 +341,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="J9" activeCellId="0" sqref="J9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -355,245 +377,257 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="3" t="n">
         <v>16</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="2" t="s">
+      <c r="B2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="E2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="F2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="G2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="H2" s="3" t="s">
         <v>16</v>
       </c>
+      <c r="I2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="3" t="n">
         <v>17</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="3" t="n">
+        <v>18</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="3" t="n">
+        <v>19</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I5" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" s="2" t="s">
+    </row>
+    <row r="6" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="3" t="n">
         <v>20</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="B6" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="3" t="n">
         <v>21</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="B7" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="3" t="n">
         <v>22</v>
       </c>
-      <c r="H3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="n">
+      <c r="B8" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E8" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>16</v>
+      <c r="F8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2"/>
+      <c r="A12" s="3"/>
     </row>
   </sheetData>
   <hyperlinks>
